--- a/InterlockingDemo/Datas/Signals.xlsx
+++ b/InterlockingDemo/Datas/Signals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,10 +25,6 @@
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,6 +193,142 @@
   </si>
   <si>
     <t>出站兼调车信号机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方向连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信号机-S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信号机-X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,9 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -566,7 +700,7 @@
     <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -574,183 +708,267 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
